--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2022_ICPData.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2022_ICPData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/Virginia Tech/Sed Traps/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CCD1B7-9014-6840-B352-1886E2B3F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB013F1-F86D-4D4F-BB67-49E23B9A2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{725AC435-0C38-ED45-8AA8-5E038465255A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{725AC435-0C38-ED45-8AA8-5E038465255A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F575C1D-71F0-D049-A8F7-17D1A09890BC}">
   <dimension ref="A1:AD144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
